--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -2605,10 +2605,10 @@
     <t>2034</t>
   </si>
   <si>
+    <t>2041</t>
+  </si>
+  <si>
     <t>2029</t>
-  </si>
-  <si>
-    <t>2041</t>
   </si>
   <si>
     <t>2039</t>
@@ -3242,7 +3242,7 @@
     <t>Do all reasonable in the Council’s gift to aim for carbon neutrality for 2030 and work with government to achieve the national 2050 target.</t>
   </si>
   <si>
-    <t>Our commitment to achieve net zero carbon emissions by 2029, which is part of our Carbon management work.</t>
+    <t>A policy to achieve net zero in just 5 years time, by 2027, underlining the council’s commitment to the environment, has been outlined at tonight’s council meeting.</t>
   </si>
   <si>
     <t>In November 2019, Camden Council formally declared a Climate and Ecological Emergency, recognising not only the threat of climate change but also the impact of irreversible damage to ecosystems, and committed to do everything it can to make Camden net zero carbon by 2030.</t>
@@ -4472,7 +4472,7 @@
     <t>https://democracy.brent.gov.uk/documents/s85949/16.3.%20Motion%20-%20Labour%20Group%202.pdf</t>
   </si>
   <si>
-    <t>https://www.bromley.gov.uk/download/downloads/id/547/environment_and_community_services_portfolio_plan.pdf</t>
+    <t>https://www.bromley.gov.uk/news/article/303/net-zero-emissions-for-2027-in-just-five-years</t>
   </si>
   <si>
     <t>https://democracy.camden.gov.uk/documents/s89494/Climate%20Action%20Plan%20Appendix%201%20_%20Camden%20climate%20action%20plan.pdf</t>
@@ -5495,7 +5495,7 @@
     <t>Gloucestershire’s Climate Change Strategy</t>
   </si>
   <si>
-    <t>Climate Crisis Response | Gloucester City Council</t>
+    <t>The Council's response to the climate crisis</t>
   </si>
   <si>
     <t>Climate Commitments | Gravesham Borough Council</t>
@@ -5629,7 +5629,7 @@
     <t>Declaring a Climate and Ecological Emergency | London Borough of Brent</t>
   </si>
   <si>
-    <t>Environment and Community Services | London Borough of Bromley</t>
+    <t>Net zero emissions for 2027, in just five years</t>
   </si>
   <si>
     <t>Camden Climate Action Plan 2020-25</t>
@@ -15521,7 +15521,7 @@
         <v>846</v>
       </c>
       <c r="D223" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E223" t="s">
         <v>1063</v>
@@ -15833,7 +15833,7 @@
         <v>847</v>
       </c>
       <c r="D232" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E232" t="s">
         <v>1072</v>
@@ -17057,7 +17057,7 @@
         <v>846</v>
       </c>
       <c r="D268" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E268" t="s">
         <v>1105</v>
@@ -19821,7 +19821,7 @@
         <v>847</v>
       </c>
       <c r="D351" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E351" t="s">
         <v>1181</v>
@@ -23365,7 +23365,7 @@
         <v>847</v>
       </c>
       <c r="D458" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E458" t="s">
         <v>1274</v>
@@ -23828,7 +23828,7 @@
         <v>847</v>
       </c>
       <c r="D472" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E472" t="s">
         <v>1287</v>
@@ -23965,7 +23965,7 @@
         <v>847</v>
       </c>
       <c r="D476" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E476" t="s">
         <v>1291</v>

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="2541">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -7607,27 +7607,27 @@
     <t>South East</t>
   </si>
   <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>East of England</t>
+  </si>
+  <si>
+    <t>Yorkshire and The Humber</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
     <t>North West</t>
   </si>
   <si>
-    <t>East Midlands</t>
-  </si>
-  <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>East of England</t>
-  </si>
-  <si>
-    <t>Yorkshire and The Humber</t>
-  </si>
-  <si>
-    <t>South West</t>
-  </si>
-  <si>
-    <t>West Midlands</t>
-  </si>
-  <si>
     <t>Wales</t>
   </si>
   <si>
@@ -7734,12 +7734,6 @@
   </si>
   <si>
     <t>Council operations, Whole area, No promise, Other, Unclear</t>
-  </si>
-  <si>
-    <t>Scotland, South East, North West, East Midlands, Northern Ireland, East of England, Yorkshire and The Humber, South West, West Midlands, Wales, London, North East</t>
-  </si>
-  <si>
-    <t>Scottish unitary authority, Non-metropolitan district, NI district, Metropolitan district, Unitary authority, Welsh unitary authority, Combined authority, County, City corporation, London borough</t>
   </si>
 </sst>
 </file>
@@ -8507,15 +8501,6 @@
       <c r="I8" t="s">
         <v>2092</v>
       </c>
-      <c r="J8" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L8" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -8543,7 +8528,7 @@
         <v>2093</v>
       </c>
       <c r="J9" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K9" t="s">
         <v>2509</v>
@@ -8592,7 +8577,7 @@
         <v>2095</v>
       </c>
       <c r="J11" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K11" t="s">
         <v>2510</v>
@@ -8615,7 +8600,7 @@
         <v>2096</v>
       </c>
       <c r="J12" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K12" t="s">
         <v>2510</v>
@@ -8670,7 +8655,7 @@
         <v>2098</v>
       </c>
       <c r="J14" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K14" t="s">
         <v>2510</v>
@@ -8728,7 +8713,7 @@
         <v>2100</v>
       </c>
       <c r="J16" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K16" t="s">
         <v>2509</v>
@@ -8833,7 +8818,7 @@
         <v>2102</v>
       </c>
       <c r="J19" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K19" t="s">
         <v>2509</v>
@@ -8868,7 +8853,7 @@
         <v>2103</v>
       </c>
       <c r="J20" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K20" t="s">
         <v>2511</v>
@@ -8903,7 +8888,7 @@
         <v>2103</v>
       </c>
       <c r="J21" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K21" t="s">
         <v>2511</v>
@@ -8937,15 +8922,6 @@
       <c r="I22" t="s">
         <v>2104</v>
       </c>
-      <c r="J22" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L22" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
@@ -8973,7 +8949,7 @@
         <v>2105</v>
       </c>
       <c r="J23" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K23" t="s">
         <v>2509</v>
@@ -9008,7 +8984,7 @@
         <v>2105</v>
       </c>
       <c r="J24" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K24" t="s">
         <v>2509</v>
@@ -9104,7 +9080,7 @@
         <v>2107</v>
       </c>
       <c r="J27" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K27" t="s">
         <v>2509</v>
@@ -9139,7 +9115,7 @@
         <v>2108</v>
       </c>
       <c r="J28" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K28" t="s">
         <v>2512</v>
@@ -9174,7 +9150,7 @@
         <v>2108</v>
       </c>
       <c r="J29" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K29" t="s">
         <v>2512</v>
@@ -9209,7 +9185,7 @@
         <v>2109</v>
       </c>
       <c r="J30" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K30" t="s">
         <v>2512</v>
@@ -9241,7 +9217,7 @@
         <v>2110</v>
       </c>
       <c r="J31" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K31" t="s">
         <v>2511</v>
@@ -9276,7 +9252,7 @@
         <v>2110</v>
       </c>
       <c r="J32" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K32" t="s">
         <v>2511</v>
@@ -9311,7 +9287,7 @@
         <v>2111</v>
       </c>
       <c r="J33" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K33" t="s">
         <v>2509</v>
@@ -9346,7 +9322,7 @@
         <v>2111</v>
       </c>
       <c r="J34" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K34" t="s">
         <v>2509</v>
@@ -9381,7 +9357,7 @@
         <v>2112</v>
       </c>
       <c r="J35" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K35" t="s">
         <v>2512</v>
@@ -9413,7 +9389,7 @@
         <v>2112</v>
       </c>
       <c r="J36" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K36" t="s">
         <v>2512</v>
@@ -9445,7 +9421,7 @@
         <v>2113</v>
       </c>
       <c r="J37" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K37" t="s">
         <v>2512</v>
@@ -9500,7 +9476,7 @@
         <v>2115</v>
       </c>
       <c r="J39" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K39" t="s">
         <v>2509</v>
@@ -9535,7 +9511,7 @@
         <v>2116</v>
       </c>
       <c r="J40" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K40" t="s">
         <v>2511</v>
@@ -9561,7 +9537,7 @@
         <v>2117</v>
       </c>
       <c r="J41" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K41" t="s">
         <v>2509</v>
@@ -9587,7 +9563,7 @@
         <v>2118</v>
       </c>
       <c r="J42" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K42" t="s">
         <v>2509</v>
@@ -9622,7 +9598,7 @@
         <v>2119</v>
       </c>
       <c r="J43" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K43" t="s">
         <v>2512</v>
@@ -9654,7 +9630,7 @@
         <v>2119</v>
       </c>
       <c r="J44" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K44" t="s">
         <v>2512</v>
@@ -9718,7 +9694,7 @@
         <v>2121</v>
       </c>
       <c r="J46" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K46" t="s">
         <v>2511</v>
@@ -9753,7 +9729,7 @@
         <v>2121</v>
       </c>
       <c r="J47" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K47" t="s">
         <v>2511</v>
@@ -9788,7 +9764,7 @@
         <v>2122</v>
       </c>
       <c r="J48" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K48" t="s">
         <v>2509</v>
@@ -9823,7 +9799,7 @@
         <v>2123</v>
       </c>
       <c r="J49" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K49" t="s">
         <v>2509</v>
@@ -9861,7 +9837,7 @@
         <v>2124</v>
       </c>
       <c r="J50" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K50" t="s">
         <v>2509</v>
@@ -9992,7 +9968,7 @@
         <v>2127</v>
       </c>
       <c r="J54" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K54" t="s">
         <v>2512</v>
@@ -10027,7 +10003,7 @@
         <v>2127</v>
       </c>
       <c r="J55" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K55" t="s">
         <v>2512</v>
@@ -10062,7 +10038,7 @@
         <v>2128</v>
       </c>
       <c r="J56" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K56" t="s">
         <v>2509</v>
@@ -10085,7 +10061,7 @@
         <v>2129</v>
       </c>
       <c r="J57" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K57" t="s">
         <v>2509</v>
@@ -10120,7 +10096,7 @@
         <v>2130</v>
       </c>
       <c r="J58" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K58" t="s">
         <v>2509</v>
@@ -10219,7 +10195,7 @@
         <v>2132</v>
       </c>
       <c r="J61" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K61" t="s">
         <v>2509</v>
@@ -10254,7 +10230,7 @@
         <v>2133</v>
       </c>
       <c r="J62" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K62" t="s">
         <v>2511</v>
@@ -10321,7 +10297,7 @@
         <v>2135</v>
       </c>
       <c r="J64" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K64" t="s">
         <v>2511</v>
@@ -10356,7 +10332,7 @@
         <v>2136</v>
       </c>
       <c r="J65" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K65" t="s">
         <v>2509</v>
@@ -10394,7 +10370,7 @@
         <v>2137</v>
       </c>
       <c r="J66" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K66" t="s">
         <v>2514</v>
@@ -10426,7 +10402,7 @@
         <v>2138</v>
       </c>
       <c r="J67" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K67" t="s">
         <v>2515</v>
@@ -10461,7 +10437,7 @@
         <v>2139</v>
       </c>
       <c r="J68" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K68" t="s">
         <v>2509</v>
@@ -10629,15 +10605,6 @@
       <c r="I73" t="s">
         <v>2142</v>
       </c>
-      <c r="J73" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K73" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L73" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
@@ -10688,7 +10655,7 @@
         <v>2144</v>
       </c>
       <c r="J75" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K75" t="s">
         <v>2509</v>
@@ -10723,7 +10690,7 @@
         <v>2145</v>
       </c>
       <c r="J76" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K76" t="s">
         <v>2512</v>
@@ -10787,7 +10754,7 @@
         <v>2147</v>
       </c>
       <c r="J78" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K78" t="s">
         <v>2509</v>
@@ -10822,7 +10789,7 @@
         <v>2148</v>
       </c>
       <c r="J79" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K79" t="s">
         <v>2509</v>
@@ -10857,7 +10824,7 @@
         <v>2149</v>
       </c>
       <c r="J80" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K80" t="s">
         <v>2509</v>
@@ -10962,7 +10929,7 @@
         <v>2151</v>
       </c>
       <c r="J83" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K83" t="s">
         <v>2512</v>
@@ -10994,7 +10961,7 @@
         <v>2152</v>
       </c>
       <c r="J84" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K84" t="s">
         <v>2512</v>
@@ -11026,7 +10993,7 @@
         <v>2152</v>
       </c>
       <c r="J85" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K85" t="s">
         <v>2512</v>
@@ -11058,7 +11025,7 @@
         <v>2153</v>
       </c>
       <c r="J86" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K86" t="s">
         <v>2509</v>
@@ -11093,7 +11060,7 @@
         <v>2153</v>
       </c>
       <c r="J87" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K87" t="s">
         <v>2509</v>
@@ -11163,7 +11130,7 @@
         <v>2155</v>
       </c>
       <c r="J89" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K89" t="s">
         <v>2509</v>
@@ -11198,7 +11165,7 @@
         <v>2155</v>
       </c>
       <c r="J90" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K90" t="s">
         <v>2509</v>
@@ -11265,7 +11232,7 @@
         <v>2157</v>
       </c>
       <c r="J92" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K92" t="s">
         <v>2509</v>
@@ -11370,7 +11337,7 @@
         <v>2159</v>
       </c>
       <c r="J95" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K95" t="s">
         <v>2512</v>
@@ -11425,7 +11392,7 @@
         <v>2161</v>
       </c>
       <c r="J97" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K97" t="s">
         <v>2509</v>
@@ -11511,15 +11478,6 @@
       <c r="I100" t="s">
         <v>2164</v>
       </c>
-      <c r="J100" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K100" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L100" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
@@ -11547,7 +11505,7 @@
         <v>2165</v>
       </c>
       <c r="J101" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K101" t="s">
         <v>2512</v>
@@ -11576,7 +11534,7 @@
         <v>2166</v>
       </c>
       <c r="J102" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K102" t="s">
         <v>2509</v>
@@ -11602,7 +11560,7 @@
         <v>2167</v>
       </c>
       <c r="J103" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K103" t="s">
         <v>2511</v>
@@ -11636,15 +11594,6 @@
       <c r="I104" t="s">
         <v>2168</v>
       </c>
-      <c r="J104" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K104" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L104" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
@@ -11706,12 +11655,6 @@
       <c r="I106" t="s">
         <v>2170</v>
       </c>
-      <c r="J106" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K106" t="s">
-        <v>2515</v>
-      </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
@@ -11739,7 +11682,7 @@
         <v>2171</v>
       </c>
       <c r="J107" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K107" t="s">
         <v>2509</v>
@@ -11867,7 +11810,7 @@
         <v>2175</v>
       </c>
       <c r="J111" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K111" t="s">
         <v>2512</v>
@@ -11899,7 +11842,7 @@
         <v>2176</v>
       </c>
       <c r="J112" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K112" t="s">
         <v>2515</v>
@@ -11931,7 +11874,7 @@
         <v>2177</v>
       </c>
       <c r="J113" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K113" t="s">
         <v>2509</v>
@@ -11966,7 +11909,7 @@
         <v>2178</v>
       </c>
       <c r="J114" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K114" t="s">
         <v>2515</v>
@@ -11998,7 +11941,7 @@
         <v>2178</v>
       </c>
       <c r="J115" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K115" t="s">
         <v>2515</v>
@@ -12030,7 +11973,7 @@
         <v>2179</v>
       </c>
       <c r="J116" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K116" t="s">
         <v>2511</v>
@@ -12065,7 +12008,7 @@
         <v>2180</v>
       </c>
       <c r="J117" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K117" t="s">
         <v>2512</v>
@@ -12097,7 +12040,7 @@
         <v>2180</v>
       </c>
       <c r="J118" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K118" t="s">
         <v>2512</v>
@@ -12190,7 +12133,7 @@
         <v>2182</v>
       </c>
       <c r="J121" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K121" t="s">
         <v>2511</v>
@@ -12423,7 +12366,7 @@
         <v>2187</v>
       </c>
       <c r="J128" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K128" t="s">
         <v>2509</v>
@@ -12461,7 +12404,7 @@
         <v>2188</v>
       </c>
       <c r="J129" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K129" t="s">
         <v>2509</v>
@@ -12563,7 +12506,7 @@
         <v>2191</v>
       </c>
       <c r="J132" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K132" t="s">
         <v>2509</v>
@@ -12598,7 +12541,7 @@
         <v>2192</v>
       </c>
       <c r="J133" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K133" t="s">
         <v>2509</v>
@@ -12697,7 +12640,7 @@
         <v>2195</v>
       </c>
       <c r="J136" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K136" t="s">
         <v>2512</v>
@@ -12729,7 +12672,7 @@
         <v>2196</v>
       </c>
       <c r="J137" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K137" t="s">
         <v>2509</v>
@@ -12900,15 +12843,6 @@
       <c r="I142" t="s">
         <v>2200</v>
       </c>
-      <c r="J142" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K142" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L142" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
@@ -12971,7 +12905,7 @@
         <v>2202</v>
       </c>
       <c r="J144" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K144" t="s">
         <v>2509</v>
@@ -13006,7 +12940,7 @@
         <v>2202</v>
       </c>
       <c r="J145" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K145" t="s">
         <v>2509</v>
@@ -13076,7 +13010,7 @@
         <v>2204</v>
       </c>
       <c r="J147" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K147" t="s">
         <v>2509</v>
@@ -13111,7 +13045,7 @@
         <v>2205</v>
       </c>
       <c r="J148" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K148" t="s">
         <v>2515</v>
@@ -13143,7 +13077,7 @@
         <v>2206</v>
       </c>
       <c r="J149" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K149" t="s">
         <v>2509</v>
@@ -13236,7 +13170,7 @@
         <v>2209</v>
       </c>
       <c r="J152" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K152" t="s">
         <v>2509</v>
@@ -13364,7 +13298,7 @@
         <v>2213</v>
       </c>
       <c r="J156" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K156" t="s">
         <v>2509</v>
@@ -13399,7 +13333,7 @@
         <v>2213</v>
       </c>
       <c r="J157" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K157" t="s">
         <v>2509</v>
@@ -13425,7 +13359,7 @@
         <v>2214</v>
       </c>
       <c r="J158" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K158" t="s">
         <v>2509</v>
@@ -13530,7 +13464,7 @@
         <v>2216</v>
       </c>
       <c r="J161" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K161" t="s">
         <v>2509</v>
@@ -13597,7 +13531,7 @@
         <v>2218</v>
       </c>
       <c r="J163" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K163" t="s">
         <v>2509</v>
@@ -13632,7 +13566,7 @@
         <v>2218</v>
       </c>
       <c r="J164" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K164" t="s">
         <v>2509</v>
@@ -13667,7 +13601,7 @@
         <v>2219</v>
       </c>
       <c r="J165" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K165" t="s">
         <v>2515</v>
@@ -13699,7 +13633,7 @@
         <v>2219</v>
       </c>
       <c r="J166" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K166" t="s">
         <v>2515</v>
@@ -13827,7 +13761,7 @@
         <v>2222</v>
       </c>
       <c r="J170" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K170" t="s">
         <v>2509</v>
@@ -13862,7 +13796,7 @@
         <v>2223</v>
       </c>
       <c r="J171" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K171" t="s">
         <v>2514</v>
@@ -13949,7 +13883,7 @@
         <v>2226</v>
       </c>
       <c r="J174" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K174" t="s">
         <v>2512</v>
@@ -13983,15 +13917,6 @@
       <c r="I175" t="s">
         <v>2227</v>
       </c>
-      <c r="J175" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K175" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L175" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
@@ -14051,7 +13976,7 @@
         <v>2229</v>
       </c>
       <c r="J177" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K177" t="s">
         <v>2509</v>
@@ -14086,7 +14011,7 @@
         <v>2230</v>
       </c>
       <c r="J178" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K178" t="s">
         <v>2509</v>
@@ -14120,15 +14045,6 @@
       <c r="I179" t="s">
         <v>2231</v>
       </c>
-      <c r="J179" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K179" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L179" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
@@ -14287,7 +14203,7 @@
         <v>2236</v>
       </c>
       <c r="J184" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K184" t="s">
         <v>2512</v>
@@ -14319,7 +14235,7 @@
         <v>2236</v>
       </c>
       <c r="J185" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K185" t="s">
         <v>2512</v>
@@ -14351,7 +14267,7 @@
         <v>2237</v>
       </c>
       <c r="J186" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K186" t="s">
         <v>2515</v>
@@ -14383,7 +14299,7 @@
         <v>2237</v>
       </c>
       <c r="J187" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K187" t="s">
         <v>2515</v>
@@ -14415,7 +14331,7 @@
         <v>2238</v>
       </c>
       <c r="J188" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K188" t="s">
         <v>2509</v>
@@ -14450,7 +14366,7 @@
         <v>2239</v>
       </c>
       <c r="J189" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K189" t="s">
         <v>2509</v>
@@ -14485,7 +14401,7 @@
         <v>2240</v>
       </c>
       <c r="J190" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K190" t="s">
         <v>2509</v>
@@ -14558,7 +14474,7 @@
         <v>2242</v>
       </c>
       <c r="J192" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K192" t="s">
         <v>2509</v>
@@ -14596,7 +14512,7 @@
         <v>2243</v>
       </c>
       <c r="J193" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K193" t="s">
         <v>2509</v>
@@ -14631,7 +14547,7 @@
         <v>2243</v>
       </c>
       <c r="J194" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K194" t="s">
         <v>2509</v>
@@ -14689,7 +14605,7 @@
         <v>2245</v>
       </c>
       <c r="J196" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K196" t="s">
         <v>2509</v>
@@ -14788,7 +14704,7 @@
         <v>2248</v>
       </c>
       <c r="J199" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K199" t="s">
         <v>2512</v>
@@ -14884,7 +14800,7 @@
         <v>2250</v>
       </c>
       <c r="J202" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K202" t="s">
         <v>2509</v>
@@ -14919,7 +14835,7 @@
         <v>2251</v>
       </c>
       <c r="J203" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K203" t="s">
         <v>2512</v>
@@ -14951,7 +14867,7 @@
         <v>2252</v>
       </c>
       <c r="J204" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K204" t="s">
         <v>2511</v>
@@ -14986,7 +14902,7 @@
         <v>2253</v>
       </c>
       <c r="J205" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K205" t="s">
         <v>2511</v>
@@ -15021,7 +14937,7 @@
         <v>2254</v>
       </c>
       <c r="J206" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K206" t="s">
         <v>2515</v>
@@ -15053,7 +14969,7 @@
         <v>2255</v>
       </c>
       <c r="J207" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K207" t="s">
         <v>2509</v>
@@ -15088,7 +15004,7 @@
         <v>2255</v>
       </c>
       <c r="J208" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K208" t="s">
         <v>2509</v>
@@ -15123,7 +15039,7 @@
         <v>2256</v>
       </c>
       <c r="J209" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K209" t="s">
         <v>2511</v>
@@ -15158,7 +15074,7 @@
         <v>2257</v>
       </c>
       <c r="J210" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K210" t="s">
         <v>2512</v>
@@ -15190,7 +15106,7 @@
         <v>2257</v>
       </c>
       <c r="J211" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K211" t="s">
         <v>2512</v>
@@ -15222,7 +15138,7 @@
         <v>2258</v>
       </c>
       <c r="J212" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K212" t="s">
         <v>2515</v>
@@ -15254,7 +15170,7 @@
         <v>2258</v>
       </c>
       <c r="J213" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K213" t="s">
         <v>2515</v>
@@ -15312,7 +15228,7 @@
         <v>2260</v>
       </c>
       <c r="J215" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K215" t="s">
         <v>2509</v>
@@ -15347,7 +15263,7 @@
         <v>2261</v>
       </c>
       <c r="J216" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K216" t="s">
         <v>2515</v>
@@ -15379,7 +15295,7 @@
         <v>2262</v>
       </c>
       <c r="J217" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K217" t="s">
         <v>2511</v>
@@ -15414,7 +15330,7 @@
         <v>2263</v>
       </c>
       <c r="J218" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K218" t="s">
         <v>2514</v>
@@ -16533,7 +16449,7 @@
         <v>2292</v>
       </c>
       <c r="J251" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K251" t="s">
         <v>2512</v>
@@ -16565,7 +16481,7 @@
         <v>2292</v>
       </c>
       <c r="J252" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K252" t="s">
         <v>2512</v>
@@ -16632,7 +16548,7 @@
         <v>2294</v>
       </c>
       <c r="J254" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K254" t="s">
         <v>2509</v>
@@ -16667,7 +16583,7 @@
         <v>2294</v>
       </c>
       <c r="J255" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K255" t="s">
         <v>2509</v>
@@ -16702,7 +16618,7 @@
         <v>2295</v>
       </c>
       <c r="J256" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K256" t="s">
         <v>2509</v>
@@ -16737,7 +16653,7 @@
         <v>2295</v>
       </c>
       <c r="J257" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K257" t="s">
         <v>2509</v>
@@ -16772,7 +16688,7 @@
         <v>2296</v>
       </c>
       <c r="J258" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K258" t="s">
         <v>2511</v>
@@ -16807,7 +16723,7 @@
         <v>2297</v>
       </c>
       <c r="J259" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K259" t="s">
         <v>2509</v>
@@ -16906,7 +16822,7 @@
         <v>2299</v>
       </c>
       <c r="J262" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K262" t="s">
         <v>2509</v>
@@ -16940,15 +16856,6 @@
       <c r="I263" t="s">
         <v>2300</v>
       </c>
-      <c r="J263" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K263" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L263" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="264" spans="1:13">
       <c r="A264" t="s">
@@ -17008,7 +16915,7 @@
         <v>2302</v>
       </c>
       <c r="J265" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K265" t="s">
         <v>2509</v>
@@ -17043,7 +16950,7 @@
         <v>2303</v>
       </c>
       <c r="J266" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K266" t="s">
         <v>2509</v>
@@ -17354,7 +17261,7 @@
         <v>2312</v>
       </c>
       <c r="J276" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K276" t="s">
         <v>2509</v>
@@ -17412,7 +17319,7 @@
         <v>2314</v>
       </c>
       <c r="J278" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K278" t="s">
         <v>2509</v>
@@ -17514,7 +17421,7 @@
         <v>2317</v>
       </c>
       <c r="J281" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K281" t="s">
         <v>2515</v>
@@ -17578,7 +17485,7 @@
         <v>2319</v>
       </c>
       <c r="J283" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K283" t="s">
         <v>2509</v>
@@ -17636,7 +17543,7 @@
         <v>2321</v>
       </c>
       <c r="J285" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K285" t="s">
         <v>2509</v>
@@ -17671,7 +17578,7 @@
         <v>2322</v>
       </c>
       <c r="J286" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K286" t="s">
         <v>2512</v>
@@ -17703,7 +17610,7 @@
         <v>2323</v>
       </c>
       <c r="J287" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K287" t="s">
         <v>2509</v>
@@ -17738,7 +17645,7 @@
         <v>2324</v>
       </c>
       <c r="J288" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K288" t="s">
         <v>2509</v>
@@ -17840,7 +17747,7 @@
         <v>2326</v>
       </c>
       <c r="J291" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K291" t="s">
         <v>2512</v>
@@ -17872,7 +17779,7 @@
         <v>2327</v>
       </c>
       <c r="J292" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K292" t="s">
         <v>2509</v>
@@ -17910,7 +17817,7 @@
         <v>2328</v>
       </c>
       <c r="J293" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K293" t="s">
         <v>2512</v>
@@ -17942,7 +17849,7 @@
         <v>2329</v>
       </c>
       <c r="J294" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K294" t="s">
         <v>2512</v>
@@ -18009,7 +17916,7 @@
         <v>2331</v>
       </c>
       <c r="J296" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K296" t="s">
         <v>2509</v>
@@ -18044,7 +17951,7 @@
         <v>2332</v>
       </c>
       <c r="J297" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K297" t="s">
         <v>2509</v>
@@ -18079,7 +17986,7 @@
         <v>2332</v>
       </c>
       <c r="J298" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K298" t="s">
         <v>2509</v>
@@ -18113,12 +18020,6 @@
       <c r="I299" t="s">
         <v>2333</v>
       </c>
-      <c r="J299" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K299" t="s">
-        <v>2515</v>
-      </c>
     </row>
     <row r="300" spans="1:13">
       <c r="A300" t="s">
@@ -18181,7 +18082,7 @@
         <v>2335</v>
       </c>
       <c r="J301" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K301" t="s">
         <v>2509</v>
@@ -18216,7 +18117,7 @@
         <v>2336</v>
       </c>
       <c r="J302" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K302" t="s">
         <v>2512</v>
@@ -18248,7 +18149,7 @@
         <v>2337</v>
       </c>
       <c r="J303" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K303" t="s">
         <v>2515</v>
@@ -18280,7 +18181,7 @@
         <v>2338</v>
       </c>
       <c r="J304" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K304" t="s">
         <v>2509</v>
@@ -18315,7 +18216,7 @@
         <v>2339</v>
       </c>
       <c r="J305" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K305" t="s">
         <v>2509</v>
@@ -18350,7 +18251,7 @@
         <v>2340</v>
       </c>
       <c r="J306" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K306" t="s">
         <v>2511</v>
@@ -18385,7 +18286,7 @@
         <v>2340</v>
       </c>
       <c r="J307" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K307" t="s">
         <v>2511</v>
@@ -18609,7 +18510,7 @@
         <v>2345</v>
       </c>
       <c r="J314" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K314" t="s">
         <v>2509</v>
@@ -18676,7 +18577,7 @@
         <v>2347</v>
       </c>
       <c r="J316" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K316" t="s">
         <v>2512</v>
@@ -18711,7 +18612,7 @@
         <v>2348</v>
       </c>
       <c r="J317" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K317" t="s">
         <v>2512</v>
@@ -18807,7 +18708,7 @@
         <v>2351</v>
       </c>
       <c r="J320" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K320" t="s">
         <v>2509</v>
@@ -18842,7 +18743,7 @@
         <v>2351</v>
       </c>
       <c r="J321" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K321" t="s">
         <v>2509</v>
@@ -18944,7 +18845,7 @@
         <v>2354</v>
       </c>
       <c r="J324" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K324" t="s">
         <v>2509</v>
@@ -19113,7 +19014,7 @@
         <v>2358</v>
       </c>
       <c r="J329" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K329" t="s">
         <v>2509</v>
@@ -19147,15 +19048,6 @@
       <c r="I330" t="s">
         <v>2359</v>
       </c>
-      <c r="J330" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K330" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L330" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="331" spans="1:13">
       <c r="A331" t="s">
@@ -19182,15 +19074,6 @@
       <c r="I331" t="s">
         <v>2359</v>
       </c>
-      <c r="J331" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K331" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L331" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="332" spans="1:13">
       <c r="A332" t="s">
@@ -19218,7 +19101,7 @@
         <v>2360</v>
       </c>
       <c r="J332" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K332" t="s">
         <v>2511</v>
@@ -19253,7 +19136,7 @@
         <v>2361</v>
       </c>
       <c r="J333" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K333" t="s">
         <v>2509</v>
@@ -19288,7 +19171,7 @@
         <v>2362</v>
       </c>
       <c r="J334" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K334" t="s">
         <v>2509</v>
@@ -19358,7 +19241,7 @@
         <v>2364</v>
       </c>
       <c r="J336" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K336" t="s">
         <v>2511</v>
@@ -19393,7 +19276,7 @@
         <v>2364</v>
       </c>
       <c r="J337" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K337" t="s">
         <v>2511</v>
@@ -19600,7 +19483,7 @@
         <v>2369</v>
       </c>
       <c r="J343" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K343" t="s">
         <v>2509</v>
@@ -19661,7 +19544,7 @@
         <v>2371</v>
       </c>
       <c r="J345" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K345" t="s">
         <v>2509</v>
@@ -19731,7 +19614,7 @@
         <v>2373</v>
       </c>
       <c r="J347" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K347" t="s">
         <v>2512</v>
@@ -19762,15 +19645,6 @@
       <c r="I348" t="s">
         <v>2374</v>
       </c>
-      <c r="J348" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K348" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L348" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="349" spans="1:13">
       <c r="A349" t="s">
@@ -19798,7 +19672,7 @@
         <v>2375</v>
       </c>
       <c r="J349" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K349" t="s">
         <v>2511</v>
@@ -19833,7 +19707,7 @@
         <v>2376</v>
       </c>
       <c r="J350" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K350" t="s">
         <v>2511</v>
@@ -19868,7 +19742,7 @@
         <v>2376</v>
       </c>
       <c r="J351" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K351" t="s">
         <v>2511</v>
@@ -19902,15 +19776,6 @@
       <c r="I352" t="s">
         <v>2377</v>
       </c>
-      <c r="J352" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K352" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L352" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="353" spans="1:13">
       <c r="A353" t="s">
@@ -19969,15 +19834,6 @@
       <c r="I354" t="s">
         <v>2379</v>
       </c>
-      <c r="J354" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K354" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L354" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="355" spans="1:13">
       <c r="A355" t="s">
@@ -20005,7 +19861,7 @@
         <v>2380</v>
       </c>
       <c r="J355" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K355" t="s">
         <v>2511</v>
@@ -20040,7 +19896,7 @@
         <v>2380</v>
       </c>
       <c r="J356" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K356" t="s">
         <v>2511</v>
@@ -20074,15 +19930,6 @@
       <c r="I357" t="s">
         <v>2381</v>
       </c>
-      <c r="J357" t="s">
-        <v>2502</v>
-      </c>
-      <c r="K357" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L357" t="s">
-        <v>276</v>
-      </c>
     </row>
     <row r="358" spans="1:13">
       <c r="A358" t="s">
@@ -20145,7 +19992,7 @@
         <v>2383</v>
       </c>
       <c r="J359" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K359" t="s">
         <v>2511</v>
@@ -20180,7 +20027,7 @@
         <v>2384</v>
       </c>
       <c r="J360" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K360" t="s">
         <v>2514</v>
@@ -20235,7 +20082,7 @@
         <v>2386</v>
       </c>
       <c r="J362" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K362" t="s">
         <v>2512</v>
@@ -20296,7 +20143,7 @@
         <v>2388</v>
       </c>
       <c r="J364" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K364" t="s">
         <v>2511</v>
@@ -20330,12 +20177,6 @@
       <c r="I365" t="s">
         <v>2389</v>
       </c>
-      <c r="J365" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K365" t="s">
-        <v>2515</v>
-      </c>
     </row>
     <row r="366" spans="1:13">
       <c r="A366" t="s">
@@ -20395,7 +20236,7 @@
         <v>2391</v>
       </c>
       <c r="J367" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K367" t="s">
         <v>2509</v>
@@ -20433,7 +20274,7 @@
         <v>2392</v>
       </c>
       <c r="J368" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K368" t="s">
         <v>2509</v>
@@ -20468,7 +20309,7 @@
         <v>2392</v>
       </c>
       <c r="J369" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K369" t="s">
         <v>2509</v>
@@ -20503,7 +20344,7 @@
         <v>2393</v>
       </c>
       <c r="J370" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K370" t="s">
         <v>2512</v>
@@ -20538,7 +20379,7 @@
         <v>2394</v>
       </c>
       <c r="J371" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K371" t="s">
         <v>2509</v>
@@ -20573,7 +20414,7 @@
         <v>2394</v>
       </c>
       <c r="J372" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K372" t="s">
         <v>2509</v>
@@ -20599,7 +20440,7 @@
         <v>2395</v>
       </c>
       <c r="J373" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K373" t="s">
         <v>2509</v>
@@ -20634,7 +20475,7 @@
         <v>2396</v>
       </c>
       <c r="J374" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K374" t="s">
         <v>2509</v>
@@ -20668,15 +20509,6 @@
       <c r="I375" t="s">
         <v>2397</v>
       </c>
-      <c r="J375" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K375" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L375" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="376" spans="1:13">
       <c r="A376" t="s">
@@ -20703,15 +20535,6 @@
       <c r="I376" t="s">
         <v>2397</v>
       </c>
-      <c r="J376" t="s">
-        <v>2498</v>
-      </c>
-      <c r="K376" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L376" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="377" spans="1:13">
       <c r="A377" t="s">
@@ -20753,7 +20576,7 @@
         <v>2399</v>
       </c>
       <c r="J378" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K378" t="s">
         <v>2509</v>
@@ -20858,7 +20681,7 @@
         <v>2401</v>
       </c>
       <c r="J381" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K381" t="s">
         <v>2509</v>
@@ -20892,15 +20715,6 @@
       <c r="I382" t="s">
         <v>2402</v>
       </c>
-      <c r="J382" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K382" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L382" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="383" spans="1:13">
       <c r="A383" t="s">
@@ -20919,7 +20733,7 @@
         <v>2403</v>
       </c>
       <c r="J383" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K383" t="s">
         <v>2509</v>
@@ -21021,7 +20835,7 @@
         <v>2406</v>
       </c>
       <c r="J386" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K386" t="s">
         <v>2512</v>
@@ -21088,7 +20902,7 @@
         <v>2408</v>
       </c>
       <c r="J388" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K388" t="s">
         <v>2509</v>
@@ -21123,7 +20937,7 @@
         <v>2409</v>
       </c>
       <c r="J389" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K389" t="s">
         <v>2511</v>
@@ -21158,7 +20972,7 @@
         <v>2410</v>
       </c>
       <c r="J390" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K390" t="s">
         <v>2509</v>
@@ -21193,7 +21007,7 @@
         <v>2411</v>
       </c>
       <c r="J391" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K391" t="s">
         <v>2515</v>
@@ -21225,7 +21039,7 @@
         <v>2412</v>
       </c>
       <c r="J392" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K392" t="s">
         <v>2509</v>
@@ -21260,7 +21074,7 @@
         <v>2413</v>
       </c>
       <c r="J393" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K393" t="s">
         <v>2509</v>
@@ -21318,7 +21132,7 @@
         <v>2415</v>
       </c>
       <c r="J395" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K395" t="s">
         <v>2511</v>
@@ -21353,7 +21167,7 @@
         <v>2415</v>
       </c>
       <c r="J396" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K396" t="s">
         <v>2511</v>
@@ -21405,7 +21219,7 @@
         <v>2417</v>
       </c>
       <c r="J398" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K398" t="s">
         <v>2512</v>
@@ -21437,7 +21251,7 @@
         <v>2418</v>
       </c>
       <c r="J399" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K399" t="s">
         <v>2510</v>
@@ -21469,7 +21283,7 @@
         <v>2419</v>
       </c>
       <c r="J400" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K400" t="s">
         <v>2509</v>
@@ -21504,7 +21318,7 @@
         <v>2420</v>
       </c>
       <c r="J401" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K401" t="s">
         <v>2509</v>
@@ -21539,7 +21353,7 @@
         <v>2421</v>
       </c>
       <c r="J402" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K402" t="s">
         <v>2515</v>
@@ -21909,7 +21723,7 @@
         <v>2427</v>
       </c>
       <c r="J413" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K413" t="s">
         <v>2512</v>
@@ -21941,7 +21755,7 @@
         <v>2427</v>
       </c>
       <c r="J414" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K414" t="s">
         <v>2512</v>
@@ -21973,7 +21787,7 @@
         <v>2428</v>
       </c>
       <c r="J415" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K415" t="s">
         <v>2511</v>
@@ -22008,7 +21822,7 @@
         <v>2429</v>
       </c>
       <c r="J416" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K416" t="s">
         <v>2509</v>
@@ -22077,15 +21891,6 @@
       <c r="I418" t="s">
         <v>2431</v>
       </c>
-      <c r="J418" t="s">
-        <v>2503</v>
-      </c>
-      <c r="K418" t="s">
-        <v>2509</v>
-      </c>
-      <c r="L418" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" t="s">
@@ -22136,7 +21941,7 @@
         <v>2433</v>
       </c>
       <c r="J420" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K420" t="s">
         <v>2509</v>
@@ -22171,7 +21976,7 @@
         <v>2434</v>
       </c>
       <c r="J421" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K421" t="s">
         <v>2512</v>
@@ -22203,7 +22008,7 @@
         <v>2435</v>
       </c>
       <c r="J422" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K422" t="s">
         <v>2509</v>
@@ -22273,7 +22078,7 @@
         <v>2437</v>
       </c>
       <c r="J424" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K424" t="s">
         <v>2509</v>
@@ -22407,7 +22212,7 @@
         <v>2441</v>
       </c>
       <c r="J428" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K428" t="s">
         <v>2509</v>
@@ -22442,7 +22247,7 @@
         <v>2441</v>
       </c>
       <c r="J429" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K429" t="s">
         <v>2509</v>
@@ -22477,7 +22282,7 @@
         <v>2442</v>
       </c>
       <c r="J430" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K430" t="s">
         <v>2512</v>
@@ -22544,7 +22349,7 @@
         <v>2444</v>
       </c>
       <c r="J432" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K432" t="s">
         <v>2512</v>
@@ -22599,7 +22404,7 @@
         <v>2446</v>
       </c>
       <c r="J434" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K434" t="s">
         <v>2509</v>
@@ -22634,7 +22439,7 @@
         <v>2446</v>
       </c>
       <c r="J435" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K435" t="s">
         <v>2509</v>
@@ -22669,7 +22474,7 @@
         <v>2447</v>
       </c>
       <c r="J436" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K436" t="s">
         <v>2511</v>
@@ -22739,7 +22544,7 @@
         <v>2449</v>
       </c>
       <c r="J438" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K438" t="s">
         <v>2509</v>
@@ -22841,7 +22646,7 @@
         <v>2452</v>
       </c>
       <c r="J441" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K441" t="s">
         <v>2511</v>
@@ -22876,7 +22681,7 @@
         <v>2452</v>
       </c>
       <c r="J442" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K442" t="s">
         <v>2511</v>
@@ -22911,7 +22716,7 @@
         <v>2453</v>
       </c>
       <c r="J443" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K443" t="s">
         <v>2511</v>
@@ -22946,7 +22751,7 @@
         <v>2454</v>
       </c>
       <c r="J444" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K444" t="s">
         <v>2512</v>
@@ -22978,7 +22783,7 @@
         <v>2455</v>
       </c>
       <c r="J445" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K445" t="s">
         <v>2509</v>
@@ -23013,7 +22818,7 @@
         <v>2456</v>
       </c>
       <c r="J446" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K446" t="s">
         <v>2515</v>
@@ -23045,7 +22850,7 @@
         <v>2457</v>
       </c>
       <c r="J447" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K447" t="s">
         <v>2509</v>
@@ -23080,7 +22885,7 @@
         <v>2458</v>
       </c>
       <c r="J448" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K448" t="s">
         <v>2509</v>
@@ -23185,7 +22990,7 @@
         <v>2461</v>
       </c>
       <c r="J451" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K451" t="s">
         <v>2509</v>
@@ -23252,7 +23057,7 @@
         <v>2463</v>
       </c>
       <c r="J453" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K453" t="s">
         <v>2509</v>
@@ -23287,7 +23092,7 @@
         <v>2463</v>
       </c>
       <c r="J454" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K454" t="s">
         <v>2509</v>
@@ -23354,7 +23159,7 @@
         <v>2465</v>
       </c>
       <c r="J456" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K456" t="s">
         <v>2509</v>
@@ -23389,7 +23194,7 @@
         <v>2466</v>
       </c>
       <c r="J457" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K457" t="s">
         <v>2509</v>
@@ -23447,7 +23252,7 @@
         <v>2468</v>
       </c>
       <c r="J459" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K459" t="s">
         <v>2514</v>
@@ -23470,7 +23275,7 @@
         <v>2469</v>
       </c>
       <c r="J460" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K460" t="s">
         <v>2512</v>
@@ -23502,7 +23307,7 @@
         <v>2470</v>
       </c>
       <c r="J461" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K461" t="s">
         <v>2514</v>
@@ -23601,7 +23406,7 @@
         <v>2473</v>
       </c>
       <c r="J464" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K464" t="s">
         <v>2509</v>
@@ -23636,7 +23441,7 @@
         <v>2474</v>
       </c>
       <c r="J465" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K465" t="s">
         <v>2514</v>
@@ -23738,7 +23543,7 @@
         <v>2476</v>
       </c>
       <c r="J468" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K468" t="s">
         <v>2511</v>
@@ -23773,7 +23578,7 @@
         <v>2477</v>
       </c>
       <c r="J469" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K469" t="s">
         <v>2512</v>
@@ -23875,7 +23680,7 @@
         <v>2479</v>
       </c>
       <c r="J472" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K472" t="s">
         <v>2511</v>
@@ -23910,7 +23715,7 @@
         <v>2479</v>
       </c>
       <c r="J473" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K473" t="s">
         <v>2511</v>
@@ -24012,7 +23817,7 @@
         <v>2482</v>
       </c>
       <c r="J476" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K476" t="s">
         <v>2511</v>
@@ -24047,7 +23852,7 @@
         <v>2482</v>
       </c>
       <c r="J477" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K477" t="s">
         <v>2511</v>
@@ -24082,7 +23887,7 @@
         <v>2483</v>
       </c>
       <c r="J478" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K478" t="s">
         <v>2509</v>
@@ -24117,7 +23922,7 @@
         <v>2484</v>
       </c>
       <c r="J479" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K479" t="s">
         <v>2515</v>
@@ -24149,7 +23954,7 @@
         <v>2484</v>
       </c>
       <c r="J480" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K480" t="s">
         <v>2515</v>
@@ -24213,7 +24018,7 @@
         <v>2486</v>
       </c>
       <c r="J482" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K482" t="s">
         <v>2509</v>
@@ -24248,7 +24053,7 @@
         <v>2487</v>
       </c>
       <c r="J483" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="K483" t="s">
         <v>2509</v>
@@ -24274,7 +24079,7 @@
         <v>2488</v>
       </c>
       <c r="J484" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K484" t="s">
         <v>2509</v>
@@ -24300,7 +24105,7 @@
         <v>2489</v>
       </c>
       <c r="J485" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K485" t="s">
         <v>2510</v>
@@ -24332,7 +24137,7 @@
         <v>2490</v>
       </c>
       <c r="J486" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K486" t="s">
         <v>2510</v>
@@ -24364,7 +24169,7 @@
         <v>2491</v>
       </c>
       <c r="J487" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K487" t="s">
         <v>2510</v>
@@ -24396,7 +24201,7 @@
         <v>2491</v>
       </c>
       <c r="J488" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K488" t="s">
         <v>2510</v>
@@ -24419,7 +24224,7 @@
         <v>2492</v>
       </c>
       <c r="J489" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K489" t="s">
         <v>2510</v>
@@ -24442,7 +24247,7 @@
         <v>2493</v>
       </c>
       <c r="J490" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K490" t="s">
         <v>2510</v>
@@ -24465,7 +24270,7 @@
         <v>2494</v>
       </c>
       <c r="J491" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K491" t="s">
         <v>2510</v>
@@ -24488,7 +24293,7 @@
         <v>2495</v>
       </c>
       <c r="J492" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K492" t="s">
         <v>2510</v>
@@ -24953,7 +24758,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="286.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="199.7109375" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25148,9 +24953,6 @@
       <c r="E11" t="s">
         <v>2539</v>
       </c>
-      <c r="F11" t="s">
-        <v>2541</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -25167,9 +24969,6 @@
       </c>
       <c r="E12" t="s">
         <v>2539</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4733" uniqueCount="2532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4734" uniqueCount="2533">
   <si>
     <t>Dataset</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_0</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_1</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -7641,6 +7641,9 @@
   </si>
   <si>
     <t>GLA</t>
+  </si>
+  <si>
+    <t>YNYC</t>
   </si>
   <si>
     <t>column</t>
@@ -11372,6 +11375,9 @@
       </c>
       <c r="L96" t="s">
         <v>2501</v>
+      </c>
+      <c r="N96" t="s">
+        <v>2508</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -24907,22 +24913,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -24930,16 +24936,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="C2" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -24947,16 +24953,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C3" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -24964,19 +24970,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C4" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>847</v>
       </c>
       <c r="E4" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -24984,16 +24990,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="C5" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="D5" s="3">
         <v>2022</v>
       </c>
       <c r="E5" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -25001,16 +25007,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C6" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1276</v>
       </c>
       <c r="E6" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -25018,16 +25024,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="C7" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1429</v>
       </c>
       <c r="E7" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -25035,16 +25041,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C8" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1726</v>
       </c>
       <c r="E8" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25052,16 +25058,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="C9" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2053</v>
       </c>
       <c r="E9" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -25069,16 +25075,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C10" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2057</v>
       </c>
       <c r="E10" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -25086,16 +25092,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C11" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2222</v>
       </c>
       <c r="E11" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -25103,16 +25109,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="C12" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2487</v>
       </c>
       <c r="E12" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -25120,16 +25126,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C13" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2505</v>
       </c>
       <c r="E13" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -25137,16 +25143,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="C14" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -25154,16 +25160,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="C15" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_1</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_2</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -3394,7 +3394,7 @@
     <t>North Somerset aims to be a carbon neutral council and a carbon neutral area by 2030</t>
   </si>
   <si>
-    <t>In 2050, the Borough of North Tyneside will be carbon neutral</t>
+    <t>We will publish an action plan of the steps we will take and  the national investment we will seek to make North Tyneside carbon net zero by 2030.</t>
   </si>
   <si>
     <t xml:space="preserve">Make the Council’s activities net-zero carbon by 2030. </t>
@@ -4624,7 +4624,7 @@
     <t>https://www.n-somerset.gov.uk/sites/default/files/2020-02/North%20Somerset%20climate%20emergency%20strategy%202019.pdf</t>
   </si>
   <si>
-    <t>https://data.climateemergency.uk/media/data/plans/north-tyneside-metropolitan-borough-council-0bf0cfb.pdf</t>
+    <t>https://democracy.northtyneside.gov.uk/documents/s14850/Carbon%20Net%20Zero%202030_Action%20Plan-Appendix%201.pdf</t>
   </si>
   <si>
     <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;ved=2ahUKEwiTuMaTr9nzAhUqhv0HHc8eDjQQFnoECAcQAQ&amp;url=https%3A%2F%2Fwww.northwarks.gov.uk%2Fdownload%2Fmeetings%2Fid%2F2237%2Fdownload_the_agenda_reports_and_appendices&amp;usg=AOvVaw3wIVBiImZfRyRsB50nxp6C</t>
@@ -5794,7 +5794,7 @@
     <t>North Somerset Climate Emergency Strategy</t>
   </si>
   <si>
-    <t>Climate Emergency Action Plan | North Tyneside Metropolitan Borough Council</t>
+    <t>Carbon Net Zero 2030 | Action Plan 2023/24</t>
   </si>
   <si>
     <t>Climate Declaration | North Warwickshire Borough Council</t>
@@ -17950,7 +17950,7 @@
         <v>848</v>
       </c>
       <c r="D297">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>1111</v>

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_3</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_4</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.4</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -4102,7 +4102,7 @@
     <t>https://www.carmarthenshire.gov.wales/media/1223704/gd6245-netzerocarbon-plan3.pdf</t>
   </si>
   <si>
-    <t>https://centralbedfordshire.app.box.com/s/ejlz0344y534z796lyglaykwd3rua9s2</t>
+    <t>https://centralbedfordshirecouncil.sharepoint.com/sites/Communications/Website%20and%20intranet/Forms/AllItems.aspx?id=/sites/Communications/Website%20and%20intranet/Website%20Documents/Sustainability/Climate%20change/Central%20Bedfordshire%20Sustainability%20Plan%20(2020-2030).pdf&amp;parent=/sites/Communications/Website%20and%20intranet/Website%20Documents/Sustainability/Climate%20change&amp;p=true&amp;ga=1</t>
   </si>
   <si>
     <t>https://www.ceredigion.gov.uk/resident/news/ceredigion-county-council-commits-to-be-a-net-zero-carbon-council-by-2030/</t>

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_4</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_4_5</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.4.5</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -3779,10 +3779,7 @@
     <t>In 2019 Three Rivers District Council declared a climate emergency, committing to... helping the district achieve the government target of net zero carbon by 2050.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reducing emissions per job by 22% by 2022.
-Reducing emissions per resident by 15% by 2022.
-Reducing emissions per daily road movement by 15% by 2022
-</t>
+    <t>At the Meeting of Council on 23rd October 2019 a motion was carried for Thurrock Council to reduce its net CO2 emission to zero by 2030.</t>
   </si>
   <si>
     <t>The Environment Agency has produced a report on its commitment to reduce its carbon emissions to net zero by 2030 . We aim to be carbon neutral in the same time frame.</t>
@@ -4957,7 +4954,7 @@
     <t>https://www.threerivers.gov.uk/news/have-your-say-on-tackling-climate-change-in-three-rivers#:~:text=In%202019%20Three%20Rivers%20District,net%20zero%20carbon%20by%202050.</t>
   </si>
   <si>
-    <t>https://www.thurrock.gov.uk/greenhouse-gases/climate-change</t>
+    <t>https://www.thurrock.gov.uk/foi-responses/climate-emergency-carbon-reduction#:~:text=At%20the%20Meeting%20of%20Council%20on%2023rd%20October%202019%20a,form%20part%20of%20this%20evaluation</t>
   </si>
   <si>
     <t>https://www.tmbc.gov.uk/climate-change/climate-change-1/4</t>
@@ -22431,10 +22428,10 @@
         <v>793</v>
       </c>
       <c r="C433" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D433">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>1237</v>
@@ -24858,7 +24855,7 @@
     <hyperlink ref="F430" r:id="rId388"/>
     <hyperlink ref="F431" r:id="rId389" location=":~:text=In%202019%20Three%20Rivers%20District,net%20zero%20carbon%20by%202050."/>
     <hyperlink ref="F432" r:id="rId390" location=":~:text=In%202019%20Three%20Rivers%20District,net%20zero%20carbon%20by%202050."/>
-    <hyperlink ref="F433" r:id="rId391"/>
+    <hyperlink ref="F433" r:id="rId391" location=":~:text=At%20the%20Meeting%20of%20Council%20on%2023rd%20October%202019%20a,form%20part%20of%20this%20evaluation"/>
     <hyperlink ref="F434" r:id="rId392"/>
     <hyperlink ref="F435" r:id="rId393"/>
     <hyperlink ref="F437" r:id="rId394" location=":~:text=Torridge%20District%20Council%20have%20declared,and%20services%20that%20we%20deliver."/>
@@ -25018,7 +25015,7 @@
         <v>2533</v>
       </c>
       <c r="D5" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E5" t="s">
         <v>2534</v>

--- a/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
+++ b/docs/data/local_authority_net_zero_commitments/latest/local_authority_net_zero_commitments.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4760" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="2543">
   <si>
     <t>Dataset</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_6_0</t>
+    <t>https://mysociety.github.io/la_plans_promises/datasets/local_authority_net_zero_commitments/0_6_1</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -7662,6 +7662,15 @@
   </si>
   <si>
     <t>YNYC</t>
+  </si>
+  <si>
+    <t>EMCA</t>
+  </si>
+  <si>
+    <t>HYCA</t>
+  </si>
+  <si>
+    <t>GLCA</t>
   </si>
   <si>
     <t>column</t>
@@ -11882,6 +11891,9 @@
       <c r="L112" t="s">
         <v>2508</v>
       </c>
+      <c r="N112" t="s">
+        <v>2516</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
@@ -11914,6 +11926,9 @@
       <c r="L113" t="s">
         <v>2511</v>
       </c>
+      <c r="N113" t="s">
+        <v>2516</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
@@ -12712,6 +12727,9 @@
       <c r="L137" t="s">
         <v>2508</v>
       </c>
+      <c r="N137" t="s">
+        <v>2517</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
@@ -14998,6 +15016,9 @@
       <c r="L206" t="s">
         <v>2508</v>
       </c>
+      <c r="N206" t="s">
+        <v>2517</v>
+      </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
@@ -15426,6 +15447,9 @@
       <c r="L219" t="s">
         <v>2511</v>
       </c>
+      <c r="N219" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
@@ -17744,6 +17768,9 @@
       <c r="L289" t="s">
         <v>2508</v>
       </c>
+      <c r="N289" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" t="s">
@@ -17913,6 +17940,9 @@
       <c r="L294" t="s">
         <v>2508</v>
       </c>
+      <c r="N294" t="s">
+        <v>2518</v>
+      </c>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" t="s">
@@ -18283,6 +18313,9 @@
       <c r="L305" t="s">
         <v>2508</v>
       </c>
+      <c r="N305" t="s">
+        <v>2516</v>
+      </c>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" t="s">
@@ -18314,6 +18347,9 @@
       </c>
       <c r="L306" t="s">
         <v>2511</v>
+      </c>
+      <c r="N306" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -25029,22 +25065,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -25052,16 +25088,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="C2" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -25069,16 +25105,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="C3" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -25086,19 +25122,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="C4" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>847</v>
       </c>
       <c r="E4" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -25106,16 +25142,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="C5" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="D5" s="3">
         <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -25123,16 +25159,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="C6" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1279</v>
       </c>
       <c r="E6" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -25140,16 +25176,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="C7" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1434</v>
       </c>
       <c r="E7" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -25157,16 +25193,16 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="C8" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1732</v>
       </c>
       <c r="E8" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25174,16 +25210,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="C9" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2060</v>
       </c>
       <c r="E9" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -25191,16 +25227,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="C10" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2064</v>
       </c>
       <c r="E10" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -25208,16 +25244,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="C11" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2229</v>
       </c>
       <c r="E11" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -25225,16 +25261,16 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="C12" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2494</v>
       </c>
       <c r="E12" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -25242,16 +25278,16 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="C13" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2512</v>
       </c>
       <c r="E13" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -25259,16 +25295,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="C14" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -25276,16 +25312,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="C15" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
   </sheetData>
